--- a/data/trans_bre/P20_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_4_R-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,61</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-17,61%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,02%</t>
+          <t>6,83%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 4,62</t>
+          <t>-3,42; 16,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 8,0</t>
+          <t>-7,35; 16,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-38,79; 14,9</t>
+          <t>-5,12; 30,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 23,42</t>
+          <t>-11,11; 30,66</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,79%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,43%</t>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 4,33</t>
+          <t>-5,52; 16,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 8,46</t>
+          <t>-7,11; 17,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 15,0</t>
+          <t>-8,55; 31,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 23,21</t>
+          <t>-11,65; 38,37</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,47</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-19,14%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 0,91</t>
+          <t>-1,02; 15,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 8,36</t>
+          <t>-5,58; 13,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-37,53; 4,08</t>
+          <t>-1,56; 25,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 24,89</t>
+          <t>-9,09; 27,4</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,3</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,71%</t>
+          <t>20,22%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 6,31</t>
+          <t>-6,46; 7,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,47; -1,93</t>
+          <t>2,08; 18,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 22,69</t>
+          <t>-9,05; 11,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,77; -4,2</t>
+          <t>3,58; 40,07</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,51%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>-3,68%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 6,91</t>
+          <t>-6,12; 11,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 12,7</t>
+          <t>-12,13; 8,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 25,44</t>
+          <t>-8,57; 17,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 39,17</t>
+          <t>-18,31; 14,43</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 7,86</t>
+          <t>-9,78; 8,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 12,51</t>
+          <t>-11,13; 11,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 20,99</t>
+          <t>-16,74; 18,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 30,41</t>
+          <t>-19,04; 25,35</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,34%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,13%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,71; -0,53</t>
+          <t>-0,56; 6,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 1,85</t>
+          <t>-0,36; 8,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,62; -1,31</t>
+          <t>-0,8; 10,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 4,6</t>
+          <t>-0,68; 15,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_4_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,06</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,59%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,83%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.617849356028271</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.655860920203379</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.1059490371880437</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.04347329673434212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 16,88</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,35; 16,1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,12; 30,19</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-11,11; 30,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.421201611029789</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.238021772316142</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.05118908117647646</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1346662884979567</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.88305149671199</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.90930076427198</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.3019296955561145</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.2783354947153317</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,91</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,78%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,52; 16,98</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 17,15</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,55; 31,95</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,65; 38,37</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.038778587514393</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.989691140928775</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1164729236823505</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.07466186455176622</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,63%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,09%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.504706795616541</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.62944304321313</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.05298945632025151</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1280507580790924</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 15,16</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,58; 13,65</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 25,34</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,09; 27,4</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>18.6580803052555</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.70845748195424</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3621087858628745</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.3825278419970915</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,62</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>20,22%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.466805931712438</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.634388822298273</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.0977010705996131</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.04530711145339654</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; 7,68</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 18,88</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; 11,72</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 40,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.871729419300915</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.574781233571324</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.02536146698686089</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1043003940183851</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.91147005346539</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.68267527838891</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.2273903006426929</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.2682676561229718</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,27</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,12; 11,38</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,13; 8,55</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,57; 17,99</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-18,31; 14,43</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.367062226722537</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.16971085977665</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.0199227863750468</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.2136986015013621</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,28%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,65%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.22823451797722</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.473558743420368</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.07202882626683045</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.04449977227428085</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-9,78; 8,97</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-11,13; 11,51</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-16,74; 18,21</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-19,04; 25,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.854046975288536</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>19.79826389600603</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1414187506439915</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.4150774984540173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>3,14</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,96%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6,67%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.747925380382653</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-3.651674853932751</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.02557509292519076</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.05846120932249491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 6,7</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 8,32</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 10,97</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 15,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-6.584001065842251</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-14.09176854176068</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.0922093976129234</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.2060582006627186</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.57120592659899</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.903098882407842</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.1843991684513024</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.1182146633210133</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1.353989478549089</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.399844735298871</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.02405322124417814</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.007682885777036145</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-8.784259543662641</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-11.88702319703174</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1409041036072551</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.2070664005784675</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>10.1794731436427</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>11.10723900007127</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1982445525552379</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.2559153441626748</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>3.7284142997001</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2.855314211070537</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.05832501963775101</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.05062155010219866</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.05054477142667603</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.342667323636839</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.0009223064890645274</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.0205884534444361</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.280912129184153</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.369906707596066</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.1177049704433658</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.1396694925035174</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
